--- a/errors.xlsx
+++ b/errors.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>RentalAgreementID</t>
   </si>
@@ -46,6 +46,12 @@
     <t>GART FIX</t>
   </si>
   <si>
+    <t>the guest reported leaking and  overheating</t>
+  </si>
+  <si>
+    <t>Turned the windshield wiper on the golf cart and it fell off</t>
+  </si>
+  <si>
     <t>Guest messaged me this morning and let me know that when they were using the home's golf cart / LSV last night, it started smoking. They have it parked at the home and have requested for someone to look at it as soon as possible today.</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>BIKE CHECK</t>
   </si>
   <si>
+    <t>FIX</t>
+  </si>
+  <si>
     <t>BIKE FIX</t>
   </si>
   <si>
@@ -67,43 +76,169 @@
     <t>ITEM MOVE</t>
   </si>
   <si>
-    <t>AT2: Complete bike check
-AT1:Guest are using 2 bikes</t>
+    <t>QUANTITY CHECK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2: Complete bike check
+AT1:only one bike on site locked through tire on driveway. guests on site probably using. locks 0021 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2: Complete bike check, please bring 4 vacayzen taxis
+AT1:No bikes on site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peloton needs set up, it is not showing an account.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one of the chains fell off one of the house bikes </t>
+  </si>
+  <si>
+    <t>Please fix loose chain on Exclusive TAXI HB "In Your Dreams" - guest said chain keeps falling off. bike placed on the gravel next to the driveway and side door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guest reported that the crank on one the bike is broken and on the next bike the chain guard is rubbing against the chain, guest stated that the two bikes are parked next to trash can. Exclusive bikes
+</t>
+  </si>
+  <si>
+    <t>D/o
+(1) Yellow 360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all bikes need air in the tires </t>
+  </si>
+  <si>
+    <t>remove 7 bikes from garage and lock to the bike rack located to the   northeastern section of the property.</t>
+  </si>
+  <si>
+    <t>locate 2 blue on blue 360s and ensure are gtg, bring 2 just in case
+per check: 3/5 blue on blue 360s locked through tires on bike rack by boardwalk. locks 0121 labeled blue door cottage. guests state they called yesterday saying that two bikes have come and gone since they've been here and someone must have their code</t>
+  </si>
+  <si>
+    <t>At2: please complete bike check
+At1: Not onsite</t>
+  </si>
+  <si>
+    <t>Peloton needs set up, it is not showing an account.</t>
+  </si>
+  <si>
+    <t>per exclusive- One bike is missing the little turn knob that adjust the seat. It's on top of the seat and the other Bikes chain is off. Please come service these bikes we have a guest coming in today.</t>
+  </si>
+  <si>
+    <t>per exclusive- One of the bike chain fall off. Please tighten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activate peloton, it got deactivated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">per guest "  one that has an issue with the pedal and another that chain keeps coming off if they could check that one as well that would be great please! We are headed out for a little while but the bikes are under the carport!" </t>
+  </si>
+  <si>
+    <t>AT2: Complete bike check, yellow 360s
+AT1:4/6 bikes at property (2 being used) All bikes at property are good - checked locks, labels, and tire pressure.</t>
+  </si>
+  <si>
+    <t>Guest is reporting a house bike has a flat tire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) house bike missing, please ensure all bikes onsite if not, d/o 1 yellow 360 and also pick up 2 rental bikes from this property </t>
+  </si>
+  <si>
+    <t>Please make sure bikes are located on a bike rack near building 46. Sent photo to logistics</t>
+  </si>
+  <si>
+    <t>Swap one white blue tire with popped tube.</t>
+  </si>
+  <si>
+    <t>Please cut and replace lock, set code to attributes
+Per check: Bike condition good. 
+Bike on right has jammed lock or incorrect code. Unable to crack it. Needs to be cut or cracked and reset</t>
+  </si>
+  <si>
+    <t>there are possibly (3) HB here 65 vista bluffs that belong at 84 Pompano Street. "Dot worry beach happy" please take them back to the property -84 Pompano Street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2: Complete bike check
+AT1:Guest are using 2 bikes </t>
   </si>
   <si>
     <t>AT2: Complete bike check
 AT1:Guest using 3 bikes</t>
   </si>
   <si>
+    <t>AT2: Complete bike check, bring 2 exclusives
+AT1:2 bikes not on site. Guest are home</t>
+  </si>
+  <si>
     <t>AT2: Complete bike check
 AT1:No bike on site. Guest are inside</t>
   </si>
   <si>
-    <t>Homeowner would like help getting the back nutt off so they can attach their own burley.</t>
+    <t xml:space="preserve">Homeowner would like help getting the back nutt off so they can attach their own burley. </t>
   </si>
   <si>
     <t>D/o
 (1) Exclusive 30a</t>
   </si>
   <si>
-    <t>Item Move/Bike Fix
-the guest left a bike on a bike rack across from the property by the bike shop they have it locked up and they told us that the code for the lock is not working so they cannot put the bike back in the garage before they leave so it needs to be returned to the property.</t>
+    <t xml:space="preserve">Item Move/Bike Fix
+the guest left a bike on a bike rack across from the property by the bike shop they have it locked up and they told us that the code for the lock is not working so they cannot put the bike back in the garage before they leave so it needs to be returned to the property. </t>
   </si>
   <si>
     <t>PM reported one of them has no air and another has a seat loose</t>
   </si>
   <si>
-    <t>Item Move // Fix
-she was riding on 30A the chain broke it is located on the beachside of 30A between Alys Beach and Prominence and needs to be picked up and returned back to the home. Trying to get more info on where it was placed!</t>
+    <t xml:space="preserve">Item Move // Fix
+she was riding on 30A the chain broke it is located on the beachside of 30A between Alys Beach and Prominence and needs to be picked up and returned back to the home. Trying to get more info on where it was placed! </t>
   </si>
   <si>
     <t>PICKUP</t>
   </si>
   <si>
-    <t>Guest reported that the chain on the 24" bike keeps falling off and is not staying on.  Please tighten.</t>
-  </si>
-  <si>
-    <t>bike locks are jammed guests are unable to unlock bikes</t>
+    <t>DELIVERY ONLY</t>
+  </si>
+  <si>
+    <t>Please replace chain on (1) 24" and (1) 20" bike. Please reset lock on 16" bike. Guest reported chain issues and a bike lock that will open. The bikes will be back to the house after 4pm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2: Pick up (1) 26" rental. Guest extended
+AT1: bike was not on site when I went by.  </t>
+  </si>
+  <si>
+    <t>AT2: Pick up (4) 26" rentals</t>
+  </si>
+  <si>
+    <t>Please pump up tires in (1) 16" bike</t>
+  </si>
+  <si>
+    <t>Please pump up tires on (1) 24" bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code 5907 is not working -please ensure the lock code is working </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT3: Pick up (1) 20' rental guest put outside last night
+AT2: Bike is still not on site  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D/O Guest is missing 1 backpack beach chair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) 26" bike has a popped tube and wants to have the bike swapped, the guest also stated that he is about 6 miles away from his rental address, 147 West La Garza in Alys Beach. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2: pick up (1) infant crib sheet from kitchen counter. Cleaners picked it up accidentally
+AT1: Picked up crib there was no sheet though   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please deliver (2) double jogging strollers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest reported that the chain on the 24" bike keeps falling off and is not staying on.  Please tighten. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bike locks are jammed guests are unable to unlock bikes </t>
   </si>
   <si>
     <t>AT2: pick up (4) 26: rentals
@@ -114,12 +249,12 @@
 AT1: **picked up 3/4 26in bikes**</t>
   </si>
   <si>
-    <t>AT2: pick up (1) 20" rental
-AT1: Not on site</t>
-  </si>
-  <si>
-    <t>AT2: Pick up (1) 20" rental
-AT1: One of the 20 inch bikes is not on site</t>
+    <t xml:space="preserve">AT2: pick up (1) 20" rental
+AT1: Not on site </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2: Pick up (1) 20" rental
+AT1: One of the 20 inch bikes is not on site </t>
   </si>
   <si>
     <t>AT2: Pick up (1) 26" w/baby seat, (1) adult helmet, (1) kid  helmet, (3) bp beach chairs, (2) 20" rentals, and (2) youth helmets.
@@ -138,16 +273,16 @@
 AT1: could not locate bike on site, bike was picked up from seagrove store. told to star for time being</t>
   </si>
   <si>
-    <t>AT2: Pick up (1) KT
-AT1: 24 on site , no sign of KT</t>
-  </si>
-  <si>
-    <t>AT2: Pick up (1) 26" rental.
-AT1: 24” picked up, 26” not on site , seat on 24” loose/broken on arrival</t>
-  </si>
-  <si>
-    <t>AT2: Pick up (1) 26" rental and (1) KT
-AT1: 26 and KT not here</t>
+    <t xml:space="preserve">AT2: Pick up (1) KT
+AT1: 24 on site , no sign of KT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2: Pick up (1) 26" rental.
+AT1: 24” picked up, 26” not on site , seat on 24” loose/broken on arrival  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT2: Pick up (1) 26" rental and (1) KT
+AT1: 26 and KT not here  </t>
   </si>
   <si>
     <t>AT2: Pick up (3) 26" rentals. Guest extended after pick up attempt
@@ -169,7 +304,7 @@
 AT2: locate and pick up (2) 26" bikes.</t>
   </si>
   <si>
-    <t>1 (26") seat is broke and can not ride on</t>
+    <t xml:space="preserve">1 (26") seat is broke and can not ride on </t>
   </si>
   <si>
     <t>ID</t>
@@ -558,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +727,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>36046</v>
+        <v>55606</v>
       </c>
       <c r="B2" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -615,16 +750,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>25863</v>
+        <v>55606</v>
       </c>
       <c r="B3" s="2">
-        <v>45364</v>
+        <v>45368</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -638,24 +773,93 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>918</v>
+        <v>47177</v>
       </c>
       <c r="B4" s="2">
-        <v>45364</v>
+        <v>45368</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>36046</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>25863</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45364</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>918</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45364</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -666,7 +870,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,16 +904,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>57571</v>
+        <v>67781</v>
       </c>
       <c r="B2" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -723,16 +927,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>51628</v>
+        <v>67324</v>
       </c>
       <c r="B3" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -746,22 +950,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>9379</v>
+        <v>59619</v>
       </c>
       <c r="B4" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -769,22 +973,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>6008</v>
+        <v>29706</v>
       </c>
       <c r="B5" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -792,16 +996,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>1036</v>
+        <v>9375</v>
       </c>
       <c r="B6" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -815,16 +1019,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>67149</v>
+        <v>6013</v>
       </c>
       <c r="B7" s="2">
-        <v>45365</v>
+        <v>45368</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -838,16 +1042,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>51094</v>
+        <v>1329</v>
       </c>
       <c r="B8" s="2">
-        <v>45365</v>
+        <v>45368</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -861,16 +1065,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>38146</v>
+        <v>1070</v>
       </c>
       <c r="B9" s="2">
-        <v>45365</v>
+        <v>45368</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -884,24 +1088,576 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
+        <v>988</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45368</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>971</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45368</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>67324</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>59619</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>30170</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>30170</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>30166</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>29706</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>1344</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>1329</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>1328</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>1292</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>1240</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1128</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>897</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45367</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>57571</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>51628</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>9379</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>6047</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>6008</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>1036</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>67149</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>51094</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
         <v>38146</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B33" s="2">
         <v>45365</v>
       </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>38146</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -912,7 +1668,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,16 +1702,16 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>70367</v>
+        <v>70404</v>
       </c>
       <c r="B2" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -969,22 +1725,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>70322</v>
+        <v>70260</v>
       </c>
       <c r="B3" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -992,16 +1748,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>70289</v>
+        <v>70121</v>
       </c>
       <c r="B4" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1015,22 +1771,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>70163</v>
+        <v>69261</v>
       </c>
       <c r="B5" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -1038,22 +1794,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>70135</v>
+        <v>69258</v>
       </c>
       <c r="B6" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1061,22 +1817,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>69854</v>
+        <v>69172</v>
       </c>
       <c r="B7" s="2">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -1084,16 +1840,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>69779</v>
+        <v>70135</v>
       </c>
       <c r="B8" s="2">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -1107,22 +1863,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>69555</v>
+        <v>69825</v>
       </c>
       <c r="B9" s="2">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -1130,22 +1886,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>68906</v>
+        <v>69815</v>
       </c>
       <c r="B10" s="2">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -1153,16 +1909,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>70225</v>
+        <v>69585</v>
       </c>
       <c r="B11" s="2">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1176,22 +1932,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>70100</v>
+        <v>69293</v>
       </c>
       <c r="B12" s="2">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -1199,22 +1955,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>70099</v>
+        <v>70367</v>
       </c>
       <c r="B13" s="2">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -1222,22 +1978,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>70092</v>
+        <v>70322</v>
       </c>
       <c r="B14" s="2">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -1245,16 +2001,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>69992</v>
+        <v>70289</v>
       </c>
       <c r="B15" s="2">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1268,22 +2024,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>69915</v>
+        <v>70163</v>
       </c>
       <c r="B16" s="2">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -1291,16 +2047,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>69824</v>
+        <v>70135</v>
       </c>
       <c r="B17" s="2">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F17" t="b">
         <v>1</v>
@@ -1314,16 +2070,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>69533</v>
+        <v>69854</v>
       </c>
       <c r="B18" s="2">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -1337,16 +2093,16 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>69710</v>
+        <v>69779</v>
       </c>
       <c r="B19" s="2">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
@@ -1360,24 +2116,277 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
+        <v>69555</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>68906</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>70225</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>70100</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>70099</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>70092</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>69992</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>69915</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>69824</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>69533</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45365</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>69710</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45364</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
         <v>69686</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B31" s="2">
         <v>45364</v>
       </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="b">
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1396,34 +2405,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>

--- a/errors.xlsx
+++ b/errors.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,10 +484,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47177</v>
+        <v>70313</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -497,7 +497,9 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PRIORITY "Turned the windshield wiper on the golf cart and it fell off"</t>
+          <t>Cart 48
+Guest reported there is almost a 20 second delay from pushing the gas to the cart going. please check and fix as needed. 
+guest number is 9012010414</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -512,10 +514,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55606</v>
+        <v>29865</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -525,7 +527,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>the guest reported leaking and  overheating</t>
+          <t>Needs side mirror bolted, screw is stripped</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -540,10 +542,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55606</v>
+        <v>70521</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45368</v>
+        <v>45370</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -553,7 +555,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>the guest reported leaking and  overheating</t>
+          <t>(1) 4 seater Golf Cart has a flat tyre, it is still at the rental address</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -571,7 +573,7 @@
         <v>47177</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -581,7 +583,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Turned the windshield wiper on the golf cart and it fell off</t>
+          <t>PRIORITY "Turned the windshield wiper on the golf cart and it fell off"</t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -596,10 +598,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36046</v>
+        <v>55606</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45366</v>
+        <v>45368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -609,7 +611,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Guest messaged me this morning and let me know that when they were using the home's golf cart / LSV last night, it started smoking. They have it parked at the home and have requested for someone to look at it as soon as possible today.</t>
+          <t>the guest reported leaking and  overheating</t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -624,10 +626,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25863</v>
+        <v>55606</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45364</v>
+        <v>45368</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -637,7 +639,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Rear right light is out, rear turn signals do not work</t>
+          <t>the guest reported leaking and  overheating</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -652,10 +654,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>918</v>
+        <v>47177</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45364</v>
+        <v>45368</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -665,16 +667,100 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Turned the windshield wiper on the golf cart and it fell off</t>
+        </is>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36046</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GART FIX</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Guest messaged me this morning and let me know that when they were using the home's golf cart / LSV last night, it started smoking. They have it parked at the home and have requested for someone to look at it as soon as possible today.</t>
+        </is>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25863</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GART FIX</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rear right light is out, rear turn signals do not work</t>
+        </is>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>918</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GART FIX</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Light still not working, changed bulb and fuses</t>
         </is>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -741,10 +827,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>828</v>
+        <v>66679</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -754,7 +840,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Please replace bike chain on (1) 26" 30A Lux TAXI. Guest reported that it has fallen off 3 times this morning.</t>
+          <t xml:space="preserve">please fix the chains on one of the dune taxis onsite-has a loose chain </t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -769,10 +855,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>67781</v>
+        <v>47254</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -782,413 +868,415 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
+          <t>AT2: Complete bike check
+AT1:Guest son is riding other bike. Bikes in garage are gtg</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1114</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Yellow 360's - Guest said 3 of the 4 bikes have flat tires and don't seem to be holding air. She said they are left where they were upon check-in. They are using one bike but would like to have all four for the family.</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>50888</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Please fix (1) Pointe HB "The Pointe #324" - loose chain. guest reported she was unable to get the chain back on, so please bring appropriate tools if necessary. bike is located near building 3, parking lot in the back 
+reported by 405-778-5940</t>
+        </is>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>828</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Please replace bike chain on (1) 26" 30A Lux TAXI. Guest reported that it has fallen off 3 times this morning.</t>
+        </is>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>67781</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BIKE CHECK</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
           <t xml:space="preserve">AT2: Complete bike check
 AT1:only one bike on site locked through tire on driveway. guests on site probably using. locks 0021 </t>
         </is>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>67324</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B8" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>BIKE CHECK</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">AT2: Complete bike check, please bring 4 vacayzen taxis
 AT1:No bikes on site </t>
         </is>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>59619</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B9" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>FIX</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">Peloton needs set up, it is not showing an account.
 </t>
         </is>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>29706</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B10" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>BIKE FIX</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">one of the chains fell off one of the house bikes </t>
         </is>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>9375</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B11" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>BIKE FIX</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Please fix loose chain on Exclusive TAXI HB "In Your Dreams" - guest said chain keeps falling off. bike placed on the gravel next to the driveway and side door</t>
         </is>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>6013</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B12" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>BIKE FIX</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">guest reported that the crank on one the bike is broken and on the next bike the chain guard is rubbing against the chain, guest stated that the two bikes are parked next to trash can. Exclusive bikes
 </t>
         </is>
       </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>1329</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B13" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>PRIORITY</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>D/o
 (1) Yellow 360</t>
         </is>
       </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>1070</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B14" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>BIKE FIX</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">all bikes need air in the tires </t>
         </is>
       </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>988</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B15" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>ITEM MOVE</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>remove 7 bikes from garage and lock to the bike rack located to the   northeastern section of the property.</t>
         </is>
       </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>971</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B16" s="2" t="n">
         <v>45368</v>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>QUANTITY CHECK</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>locate 2 blue on blue 360s and ensure are gtg, bring 2 just in case
 per check: 3/5 blue on blue 360s locked through tires on bike rack by boardwalk. locks 0121 labeled blue door cottage. guests state they called yesterday saying that two bikes have come and gone since they've been here and someone must have their code</t>
         </is>
       </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>67324</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B17" s="2" t="n">
         <v>45367</v>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>BIKE CHECK</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>At2: please complete bike check
 At1: Not onsite</t>
         </is>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>59619</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FIX</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Peloton needs set up, it is not showing an account.</t>
-        </is>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>30170</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>BIKE FIX</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>per exclusive- One bike is missing the little turn knob that adjust the seat. It's on top of the seat and the other Bikes chain is off. Please come service these bikes we have a guest coming in today.</t>
-        </is>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>30170</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BIKE FIX</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>per exclusive- One of the bike chain fall off. Please tighten.</t>
-        </is>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>30166</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FIX</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">activate peloton, it got deactivated </t>
-        </is>
-      </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -1196,20 +1284,20 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29706</v>
+        <v>59619</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>45367</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BIKE FIX</t>
+          <t>FIX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">per guest "  one that has an issue with the pedal and another that chain keeps coming off if they could check that one as well that would be great please! We are headed out for a little while but the bikes are under the carport!" </t>
+          <t>Peloton needs set up, it is not showing an account.</t>
         </is>
       </c>
       <c r="F18" t="b">
@@ -1224,140 +1312,140 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1344</v>
+        <v>30170</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>45367</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BIKE CHECK</t>
+          <t>BIKE FIX</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
+          <t>per exclusive- One bike is missing the little turn knob that adjust the seat. It's on top of the seat and the other Bikes chain is off. Please come service these bikes we have a guest coming in today.</t>
+        </is>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>30170</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>per exclusive- One of the bike chain fall off. Please tighten.</t>
+        </is>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30166</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FIX</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">activate peloton, it got deactivated </t>
+        </is>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29706</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">per guest "  one that has an issue with the pedal and another that chain keeps coming off if they could check that one as well that would be great please! We are headed out for a little while but the bikes are under the carport!" </t>
+        </is>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1344</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BIKE CHECK</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>AT2: Complete bike check, yellow 360s
 AT1:4/6 bikes at property (2 being used) All bikes at property are good - checked locks, labels, and tire pressure.</t>
         </is>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1329</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BIKE FIX</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Guest is reporting a house bike has a flat tire.</t>
-        </is>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1328</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>QUANTITY CHECK</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) house bike missing, please ensure all bikes onsite if not, d/o 1 yellow 360 and also pick up 2 rental bikes from this property </t>
-        </is>
-      </c>
-      <c r="F21" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1292</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ITEM MOVE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Please make sure bikes are located on a bike rack near building 46. Sent photo to logistics</t>
-        </is>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>1240</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>BIKE FIX</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Swap one white blue tire with popped tube.</t>
-        </is>
-      </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
@@ -1365,7 +1453,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1128</v>
+        <v>1329</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>45367</v>
@@ -1377,306 +1465,418 @@
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
+        <is>
+          <t>Guest is reporting a house bike has a flat tire.</t>
+        </is>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1328</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>QUANTITY CHECK</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(1) house bike missing, please ensure all bikes onsite if not, d/o 1 yellow 360 and also pick up 2 rental bikes from this property </t>
+        </is>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1292</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ITEM MOVE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Please make sure bikes are located on a bike rack near building 46. Sent photo to logistics</t>
+        </is>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1240</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Swap one white blue tire with popped tube.</t>
+        </is>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1128</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Please cut and replace lock, set code to attributes
 Per check: Bike condition good. 
 Bike on right has jammed lock or incorrect code. Unable to crack it. Needs to be cut or cracked and reset</t>
         </is>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>897</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B29" s="2" t="n">
         <v>45367</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>ITEM MOVE</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>there are possibly (3) HB here 65 vista bluffs that belong at 84 Pompano Street. "Dot worry beach happy" please take them back to the property -84 Pompano Street</t>
         </is>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>57571</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B30" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>BIKE CHECK</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">AT2: Complete bike check
 AT1:Guest are using 2 bikes </t>
         </is>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>51628</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B31" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>BIKE CHECK</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>AT2: Complete bike check
 AT1:Guest using 3 bikes</t>
         </is>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>9379</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B32" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>BIKE CHECK</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>AT2: Complete bike check
 AT1:Guest using 3 bikes</t>
         </is>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>6008</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B33" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>BIKE CHECK</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>AT2: Complete bike check
 AT1:No bike on site. Guest are inside</t>
         </is>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>1036</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B34" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>BIKE FIX</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">Homeowner would like help getting the back nutt off so they can attach their own burley. </t>
         </is>
       </c>
-      <c r="F30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>67149</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B35" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>PRIORITY</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>D/o
 (1) Exclusive 30a</t>
         </is>
       </c>
-      <c r="F31" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
         <v>51094</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B36" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>ITEM MOVE</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">Item Move/Bike Fix
 the guest left a bike on a bike rack across from the property by the bike shop they have it locked up and they told us that the code for the lock is not working so they cannot put the bike back in the garage before they leave so it needs to be returned to the property. </t>
         </is>
       </c>
-      <c r="F32" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>38146</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B37" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>BIKE FIX</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>PM reported one of them has no air and another has a seat loose</t>
         </is>
       </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
         <v>38146</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B38" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>ITEM MOVE</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">Item Move // Fix
 she was riding on 30A the chain broke it is located on the beachside of 30A between Alys Beach and Prominence and needs to be picked up and returned back to the home. Trying to get more info on where it was placed! </t>
         </is>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="b">
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1691,7 +1891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,20 +1943,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>70425</v>
+        <v>70179</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PRIORITY</t>
+          <t>DELIVERY ONLY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guest noted chain slipped on (1) 26". Guest turning the seat sideways on the bike with the chain issue. Please fix and tighten chain. Guess requested to have the bike replaced because the chain keeps falling off no matter how many times it gets fixed. </t>
+          <t>D/O (2) youth helmets - guest reported we only dropped 2 of 4</t>
         </is>
       </c>
       <c r="F2" t="b">
@@ -1771,10 +1971,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70404</v>
+        <v>70423</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1784,7 +1984,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please swap (1) 24" 2022 Yellow 360 YOLO. Guest said that the chain is still coming off after we fixed yesterday. </t>
+          <t>Please swap (1) 26" bike. Guest fell off of bike and bent the wheel. Guest is stranded in Seaside.</t>
         </is>
       </c>
       <c r="F3" t="b">
@@ -1799,27 +1999,27 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>70404</v>
+        <v>69975</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PRIORITY</t>
+          <t>PICKUP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Swap  (1) 24 " blue bike. Guest stated that the chains keep falling off because the wheels are not aligned. Guest stated the bike is left at the cross street between viridian park and between western lake dr.</t>
+          <t>AT2 - P/U (1) Infant Crib. Guest had to move homes, new crib already delivered so we just need to pick up this one. Access: 575284</t>
         </is>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -1827,20 +2027,20 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>69975</v>
+        <v>70425</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>45369</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DELIVERY ONLY</t>
+          <t>PRIORITY</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Please deliver (1) infant crib</t>
+          <t xml:space="preserve">Guest noted chain slipped on (1) 26". Guest turning the seat sideways on the bike with the chain issue. Please fix and tighten chain. Guess requested to have the bike replaced because the chain keeps falling off no matter how many times it gets fixed. </t>
         </is>
       </c>
       <c r="F5" t="b">
@@ -1855,7 +2055,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>69258</v>
+        <v>70404</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>45369</v>
@@ -1868,7 +2068,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Please swap (1) 20" with popped tube</t>
+          <t xml:space="preserve">Please swap (1) 24" 2022 Yellow 360 YOLO. Guest said that the chain is still coming off after we fixed yesterday. </t>
         </is>
       </c>
       <c r="F6" t="b">
@@ -1886,17 +2086,17 @@
         <v>70404</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BIKE FIX</t>
+          <t>PRIORITY</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Please replace chain on (1) 24" and (1) 20" bike. Please reset lock on 16" bike. Guest reported chain issues and a bike lock that will open. The bikes will be back to the house after 4pm.</t>
+          <t>Swap  (1) 24 " blue bike. Guest stated that the chains keep falling off because the wheels are not aligned. Guest stated the bike is left at the cross street between viridian park and between western lake dr.</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -1911,112 +2111,112 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70260</v>
+        <v>69975</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45368</v>
+        <v>45369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PICKUP</t>
+          <t>DELIVERY ONLY</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Please deliver (1) infant crib</t>
+        </is>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>69258</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PRIORITY</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Please swap (1) 20" with popped tube</t>
+        </is>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>70404</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Please replace chain on (1) 24" and (1) 20" bike. Please reset lock on 16" bike. Guest reported chain issues and a bike lock that will open. The bikes will be back to the house after 4pm.</t>
+        </is>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>70260</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
           <t xml:space="preserve">AT2: Pick up (1) 26" rental. Guest extended
 AT1: bike was not on site when I went by.  </t>
         </is>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>70121</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45368</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PICKUP</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>AT2: Pick up (4) 26" rentals</t>
-        </is>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>69261</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45368</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>BIKE FIX</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Please pump up tires in (1) 16" bike</t>
-        </is>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>69258</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45368</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BIKE FIX</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Please pump up tires on (1) 24" bike</t>
-        </is>
-      </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -2024,27 +2224,27 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>69172</v>
+        <v>70121</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>45368</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BIKE FIX</t>
+          <t>PICKUP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">code 5907 is not working -please ensure the lock code is working </t>
+          <t>AT2: Pick up (4) 26" rentals</t>
         </is>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -2052,217 +2252,221 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>70135</v>
+        <v>69261</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45367</v>
+        <v>45368</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PICKUP</t>
+          <t>BIKE FIX</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Please pump up tires in (1) 16" bike</t>
+        </is>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>69258</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Please pump up tires on (1) 24" bike</t>
+        </is>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>69172</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45368</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">code 5907 is not working -please ensure the lock code is working </t>
+        </is>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>70135</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PICKUP</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
           <t xml:space="preserve">AT3: Pick up (1) 20' rental guest put outside last night
 AT2: Bike is still not on site  </t>
         </is>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>69825</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B17" s="2" t="n">
         <v>45367</v>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>DELIVERY ONLY</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">D/O Guest is missing 1 backpack beach chair. </t>
         </is>
       </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>69815</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B18" s="2" t="n">
         <v>45367</v>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>PRIORITY</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">(1) 26" bike has a popped tube and wants to have the bike swapped, the guest also stated that he is about 6 miles away from his rental address, 147 West La Garza in Alys Beach. </t>
         </is>
       </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>69585</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B19" s="2" t="n">
         <v>45367</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">AT2: pick up (1) infant crib sheet from kitchen counter. Cleaners picked it up accidentally
 AT1: Picked up crib there was no sheet though   </t>
         </is>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>69293</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B20" s="2" t="n">
         <v>45367</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>PRIORITY</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">Please deliver (2) double jogging strollers
 </t>
         </is>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1566</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>BIKE CHECK</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>70367</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BIKE FIX</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guest reported that the chain on the 24" bike keeps falling off and is not staying on.  Please tighten. </t>
-        </is>
-      </c>
-      <c r="F19" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>70322</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>BIKE FIX</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bike locks are jammed guests are unable to unlock bikes </t>
-        </is>
-      </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
@@ -2275,545 +2479,625 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1566</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>BIKE CHECK</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>70367</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guest reported that the chain on the 24" bike keeps falling off and is not staying on.  Please tighten. </t>
+        </is>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>70322</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>BIKE FIX</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bike locks are jammed guests are unable to unlock bikes </t>
+        </is>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>70289</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B24" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>AT2: pick up (4) 26: rentals
 AT1: Checked all around house, no garage, and bikes are not on site. Car is still here so they are probably all in use. Come back later</t>
         </is>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>70163</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B25" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>AT2: Pick up (1) 26"
 AT1: **picked up 3/4 26in bikes**</t>
         </is>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>70135</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B26" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">AT2: pick up (1) 20" rental
 AT1: Not on site </t>
         </is>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>69854</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B27" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">AT2: Pick up (1) 20" rental
 AT1: One of the 20 inch bikes is not on site </t>
         </is>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
         <v>69779</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B28" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>AT2: Pick up (1) 26" w/baby seat, (1) adult helmet, (1) kid  helmet, (3) bp beach chairs, (2) 20" rentals, and (2) youth helmets.
 AT1: **Couldn’t locate**(not on site)</t>
         </is>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>69555</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B29" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>AT2: Pick up (1) 26" rental
 AT1: picked up 3/4 bikes on site, one bike is still in use with guest.</t>
         </is>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>68906</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B30" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>AT2: GOLF CART!! Pick up (1) six seat golf cart.
 AT1: Picked up all bikes, but can’t really fit the golf cart in the van</t>
         </is>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>6047</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B31" s="2" t="n">
         <v>45366</v>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>BIKE CHECK</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>AT2: Complete bike check, bring 2 exclusives
 AT1:2 bikes not on site. Guest are home</t>
         </is>
       </c>
-      <c r="F28" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
         <v>70225</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B32" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>AT2: Pick up (1) 26: rental. guest said it is on the bike rack at 1 seagrove place.
 AT1: could not locate bike on site, bike was picked up from seagrove store. told to star for time being</t>
         </is>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>70100</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B33" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t xml:space="preserve">AT2: Pick up (1) KT
 AT1: 24 on site , no sign of KT </t>
         </is>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
         <v>70099</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B34" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">AT2: Pick up (1) 26" rental.
 AT1: 24” picked up, 26” not on site , seat on 24” loose/broken on arrival  </t>
         </is>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>70092</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B35" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">AT2: Pick up (1) 26" rental and (1) KT
 AT1: 26 and KT not here  </t>
         </is>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
         <v>69992</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B36" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>AT2: Pick up (3) 26" rentals. Guest extended after pick up attempt
 AT1: Guest extended order</t>
         </is>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
         <v>69915</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B37" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>PRIORITY</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Guest noted (1) bike has a flat tire. Please check all</t>
         </is>
       </c>
-      <c r="F34" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
         <v>69824</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B38" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>AT2: Pick up (1) 26" rental. Guest said it should now be on site.
 AT1: picked up trike, picked up 3/4 26” bikes. one 26” not on site could be in use</t>
         </is>
       </c>
-      <c r="F35" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
         <v>69533</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B39" s="2" t="n">
         <v>45365</v>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>AT2: Pick up (4) 24" rentals
 AT1: picked up one 24”, and one 26”. 4/5 24” bikes in use by guests.</t>
         </is>
       </c>
-      <c r="F36" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
         <v>69710</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B40" s="2" t="n">
         <v>45364</v>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>PICKUP</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>AT1: Bikes not on site 
 AT2: locate and pick up (2) 26" bikes.</t>
         </is>
       </c>
-      <c r="F37" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
         <v>69686</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B41" s="2" t="n">
         <v>45364</v>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>BIKE FIX</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">1 (26") seat is broke and can not ride on </t>
         </is>
       </c>
-      <c r="F38" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>67495</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B42" s="2" t="n">
         <v>45364</v>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>BIKE CHECK</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="b">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
     </row>
